--- a/data/spg.xlsx
+++ b/data/spg.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerryw\Desktop\dk_http_client\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry Wu\Desktop\DK_HTTP_Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC75931-381E-40B1-AE20-96612A114895}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7956,7 +7957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8313,19 +8314,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D889" sqref="D889"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8414,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8437,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8506,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8552,7 +8554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8575,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8644,7 +8646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8667,7 +8669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8851,7 +8853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8920,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8966,7 +8968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9012,7 +9014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9058,7 +9060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9104,7 +9106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9173,7 +9175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9219,7 +9221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9311,7 +9313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9380,7 +9382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9472,7 +9474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9564,7 +9566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9587,7 +9589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9679,7 +9681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9771,7 +9773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9817,7 +9819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9840,7 +9842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9955,7 +9957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10024,7 +10026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10070,7 +10072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10116,7 +10118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10162,7 +10164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10185,7 +10187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10254,7 +10256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10300,7 +10302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10323,7 +10325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10346,7 +10348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10369,7 +10371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10645,7 +10647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10714,7 +10716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10806,7 +10808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10852,7 +10854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10898,7 +10900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10921,7 +10923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10944,7 +10946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10990,7 +10992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11059,7 +11061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11082,7 +11084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11105,7 +11107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11128,7 +11130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11197,7 +11199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11220,7 +11222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11243,7 +11245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11450,7 +11452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11473,7 +11475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11588,7 +11590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -11611,7 +11613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11657,7 +11659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -11680,7 +11682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -11726,7 +11728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -11772,7 +11774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11795,7 +11797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11818,7 +11820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11864,7 +11866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11887,7 +11889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11933,7 +11935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11979,7 +11981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -12002,7 +12004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -12025,7 +12027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -12048,7 +12050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -12094,7 +12096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -12117,7 +12119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -12163,7 +12165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -12186,7 +12188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12209,7 +12211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12301,7 +12303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12370,7 +12372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12393,7 +12395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12416,7 +12418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12439,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12485,7 +12487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12508,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12554,7 +12556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12577,7 +12579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12600,7 +12602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12623,7 +12625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12692,7 +12694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12715,7 +12717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12761,7 +12763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12830,7 +12832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12853,7 +12855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12899,7 +12901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12922,7 +12924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12968,7 +12970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12991,7 +12993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -13014,7 +13016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13037,7 +13039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13083,7 +13085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13106,7 +13108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13152,7 +13154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13175,7 +13177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13198,7 +13200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13244,7 +13246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13267,7 +13269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13313,7 +13315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -13336,7 +13338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13359,7 +13361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13382,7 +13384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13405,7 +13407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13451,7 +13453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13474,7 +13476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13520,7 +13522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13589,7 +13591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13612,7 +13614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13635,7 +13637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13681,7 +13683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13727,7 +13729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13750,7 +13752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13773,7 +13775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13796,7 +13798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13842,7 +13844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13865,7 +13867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13888,7 +13890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13911,7 +13913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13957,7 +13959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13980,7 +13982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14026,7 +14028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14072,7 +14074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14095,7 +14097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14164,7 +14166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14187,7 +14189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14210,7 +14212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14233,7 +14235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14279,7 +14281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14302,7 +14304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14371,7 +14373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14417,7 +14419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14440,7 +14442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14463,7 +14465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14555,7 +14557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14601,7 +14603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14624,7 +14626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14647,7 +14649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -14670,7 +14672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -14693,7 +14695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -14716,7 +14718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14762,7 +14764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -14808,7 +14810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -14831,7 +14833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -14854,7 +14856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -14877,7 +14879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14923,7 +14925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14946,7 +14948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14969,7 +14971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14992,7 +14994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -15015,7 +15017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -15038,7 +15040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15061,7 +15063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15084,7 +15086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15107,7 +15109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15130,7 +15132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -15222,7 +15224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -15245,7 +15247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -15268,7 +15270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -15314,7 +15316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -15337,7 +15339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -15360,7 +15362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -15383,7 +15385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -15406,7 +15408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -15429,7 +15431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -15452,7 +15454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15475,7 +15477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15498,7 +15500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15521,7 +15523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15567,7 +15569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15590,7 +15592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15613,7 +15615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15636,7 +15638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15659,7 +15661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15705,7 +15707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15728,7 +15730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15774,7 +15776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15797,7 +15799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15820,7 +15822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15889,7 +15891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15935,7 +15937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15958,7 +15960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15981,7 +15983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -16004,7 +16006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16027,7 +16029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16050,7 +16052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16096,7 +16098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16119,7 +16121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16142,7 +16144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16165,7 +16167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16211,7 +16213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16234,7 +16236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16257,7 +16259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16280,7 +16282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16303,7 +16305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16326,7 +16328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16372,7 +16374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16418,7 +16420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16441,7 +16443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16464,7 +16466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16487,7 +16489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16510,7 +16512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16533,7 +16535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16556,7 +16558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16579,7 +16581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16602,7 +16604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16625,7 +16627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16648,7 +16650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16671,7 +16673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16694,7 +16696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16717,7 +16719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16740,7 +16742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16763,7 +16765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16809,7 +16811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16832,7 +16834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16855,7 +16857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16878,7 +16880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16901,7 +16903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16924,7 +16926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16947,7 +16949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16970,7 +16972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16993,7 +16995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -17039,7 +17041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -17062,7 +17064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -17085,7 +17087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -17108,7 +17110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -17131,7 +17133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -17154,7 +17156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -17177,7 +17179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -17223,7 +17225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -17246,7 +17248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -17269,7 +17271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -17292,7 +17294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -17315,7 +17317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -17361,7 +17363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -17384,7 +17386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -17407,7 +17409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -17430,7 +17432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -17453,7 +17455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17476,7 +17478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17499,7 +17501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17522,7 +17524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17545,7 +17547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -17568,7 +17570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17591,7 +17593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17614,7 +17616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17637,7 +17639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17660,7 +17662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17683,7 +17685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17706,7 +17708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17729,7 +17731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -17752,7 +17754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -17798,7 +17800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17821,7 +17823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17844,7 +17846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17867,7 +17869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17890,7 +17892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17913,7 +17915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17936,7 +17938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17959,7 +17961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17982,7 +17984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -18005,7 +18007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -18028,7 +18030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -18074,7 +18076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -18097,7 +18099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -18120,7 +18122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -18143,7 +18145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -18166,7 +18168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -18212,7 +18214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -18235,7 +18237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -18258,7 +18260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -18304,7 +18306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -18327,7 +18329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -18350,7 +18352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -18373,7 +18375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -18396,7 +18398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18419,7 +18421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -18465,7 +18467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -18488,7 +18490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -18511,7 +18513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -18534,7 +18536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -18557,7 +18559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18580,7 +18582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18603,7 +18605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18626,7 +18628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -18649,7 +18651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -18672,7 +18674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -18695,7 +18697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -18718,7 +18720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18741,7 +18743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -18764,7 +18766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -18787,7 +18789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -18810,7 +18812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18856,7 +18858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18879,7 +18881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18902,7 +18904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18925,7 +18927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18948,7 +18950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -18971,7 +18973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -19017,7 +19019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -19040,7 +19042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -19063,7 +19065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -19086,7 +19088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -19132,7 +19134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -19201,7 +19203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19224,7 +19226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -19247,7 +19249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19270,7 +19272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -19293,7 +19295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -19316,7 +19318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -19339,7 +19341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -19362,7 +19364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -19385,7 +19387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -19408,7 +19410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -19431,7 +19433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -19454,7 +19456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -19477,7 +19479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -19500,7 +19502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -19546,7 +19548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -19569,7 +19571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -19592,7 +19594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -19615,7 +19617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -19638,7 +19640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -19661,7 +19663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -19684,7 +19686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -19707,7 +19709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -19730,7 +19732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -19753,7 +19755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -19776,7 +19778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -19799,7 +19801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -19822,7 +19824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -19845,7 +19847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -19868,7 +19870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -19891,7 +19893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -19914,7 +19916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -19937,7 +19939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -19960,7 +19962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -19983,7 +19985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20006,7 +20008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20029,7 +20031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20052,7 +20054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20075,7 +20077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20098,7 +20100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20121,7 +20123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20144,7 +20146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20167,7 +20169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20190,7 +20192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20213,7 +20215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20236,7 +20238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20259,7 +20261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20282,7 +20284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -20305,7 +20307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -20328,7 +20330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -20351,7 +20353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -20374,7 +20376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -20397,7 +20399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20420,7 +20422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -20443,7 +20445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -20466,7 +20468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -20489,7 +20491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -20512,7 +20514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -20535,7 +20537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -20558,7 +20560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -20581,7 +20583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -20604,7 +20606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -20627,7 +20629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -20650,7 +20652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -20673,7 +20675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -20696,7 +20698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -20719,7 +20721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -20742,7 +20744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -20765,7 +20767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -20788,7 +20790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -20811,7 +20813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -20834,7 +20836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -20857,7 +20859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -20880,7 +20882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -20903,7 +20905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -20926,7 +20928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -20949,7 +20951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -20972,7 +20974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -20995,7 +20997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21018,7 +21020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21041,7 +21043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21064,7 +21066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21087,7 +21089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21110,7 +21112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21133,7 +21135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21156,7 +21158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21179,7 +21181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21202,7 +21204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21225,7 +21227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21248,7 +21250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21271,7 +21273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21294,7 +21296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21317,7 +21319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21340,7 +21342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21363,7 +21365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21386,7 +21388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21409,7 +21411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21432,7 +21434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21455,7 +21457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21478,7 +21480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21501,7 +21503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21524,7 +21526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21547,7 +21549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21570,7 +21572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21593,7 +21595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21616,7 +21618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21639,7 +21641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21662,7 +21664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21685,7 +21687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21708,7 +21710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21731,7 +21733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21777,7 +21779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21800,7 +21802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21823,7 +21825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21846,7 +21848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21869,7 +21871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21892,7 +21894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21915,7 +21917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -21938,7 +21940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -21961,7 +21963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -21984,7 +21986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22007,7 +22009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22030,7 +22032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22053,7 +22055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22076,7 +22078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22099,7 +22101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22122,7 +22124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22168,7 +22170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -22191,7 +22193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -22214,7 +22216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -22237,7 +22239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -22260,7 +22262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -22283,7 +22285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -22306,7 +22308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -22329,7 +22331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -22352,7 +22354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -22375,7 +22377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -22398,7 +22400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -22421,7 +22423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -22444,7 +22446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -22467,7 +22469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -22490,7 +22492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -22513,7 +22515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -22536,7 +22538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -22559,7 +22561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -22582,7 +22584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -22605,7 +22607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -22628,7 +22630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -22651,7 +22653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -22674,7 +22676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -22697,7 +22699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -22720,7 +22722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -22743,7 +22745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -22766,7 +22768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -22789,7 +22791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -22812,7 +22814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -22835,7 +22837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -22858,7 +22860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -22881,7 +22883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -22904,7 +22906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -22927,7 +22929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -22950,7 +22952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -22973,7 +22975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -22996,7 +22998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -23019,7 +23021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -23042,7 +23044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -23065,7 +23067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -23088,7 +23090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -23111,7 +23113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -23134,7 +23136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -23157,7 +23159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -23180,7 +23182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -23203,7 +23205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -23226,7 +23228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -23249,7 +23251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -23272,7 +23274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -23295,7 +23297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -23318,7 +23320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -23341,7 +23343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -23364,7 +23366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -23387,7 +23389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -23410,7 +23412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -23433,7 +23435,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -23456,7 +23458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -23479,7 +23481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -23502,7 +23504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -23525,7 +23527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -23548,7 +23550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -23571,7 +23573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -23594,7 +23596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -23617,7 +23619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -23640,7 +23642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -23663,7 +23665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -23686,7 +23688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -23709,7 +23711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -23732,7 +23734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -23755,7 +23757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -23778,7 +23780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -23801,7 +23803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -23824,7 +23826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -23847,7 +23849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -23870,7 +23872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -23893,7 +23895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -23916,7 +23918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -23939,7 +23941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -23962,7 +23964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -23985,7 +23987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -24008,7 +24010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -24031,7 +24033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -24054,7 +24056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -24077,7 +24079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -24100,7 +24102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -24123,7 +24125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -24146,7 +24148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -24169,7 +24171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -24192,7 +24194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -24215,7 +24217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -24238,7 +24240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -24261,7 +24263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -24284,7 +24286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -24307,7 +24309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -24330,7 +24332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -24353,7 +24355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -24376,7 +24378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -24399,7 +24401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -24422,7 +24424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -24445,7 +24447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -24468,7 +24470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -24491,7 +24493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -24514,7 +24516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -24537,7 +24539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -24560,7 +24562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -24583,7 +24585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -24606,7 +24608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -24629,7 +24631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -24652,7 +24654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -24675,7 +24677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -24698,7 +24700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -24721,7 +24723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -24744,7 +24746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -24767,7 +24769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -24790,7 +24792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -24813,7 +24815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -24836,7 +24838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -24859,7 +24861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -24882,7 +24884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -24905,7 +24907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -24928,7 +24930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -24951,7 +24953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -24974,7 +24976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -24997,7 +24999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -25020,7 +25022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -25043,7 +25045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -25066,7 +25068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -25089,7 +25091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -25112,7 +25114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -25135,7 +25137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -25158,7 +25160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -25181,7 +25183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -25204,7 +25206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -25227,7 +25229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -25250,7 +25252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -25273,7 +25275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -25296,7 +25298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -25319,7 +25321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -25342,7 +25344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -25365,7 +25367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -25388,7 +25390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -25411,7 +25413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -25434,7 +25436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -25457,7 +25459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -25480,7 +25482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -25503,7 +25505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -25526,7 +25528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -25549,7 +25551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -25572,7 +25574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -25595,7 +25597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -25618,7 +25620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -25641,7 +25643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -25664,7 +25666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -25687,7 +25689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -25710,7 +25712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -25733,7 +25735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -25756,7 +25758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -25779,7 +25781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -25802,7 +25804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -25825,7 +25827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -25848,7 +25850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -25871,7 +25873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -25894,7 +25896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -25917,7 +25919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -25940,7 +25942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -25963,7 +25965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -25986,7 +25988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -26009,7 +26011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -26032,7 +26034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -26055,7 +26057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -26078,7 +26080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -26101,7 +26103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -26124,7 +26126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -26147,7 +26149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -26170,7 +26172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -26193,7 +26195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -26216,7 +26218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -26239,7 +26241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -26262,7 +26264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -26285,7 +26287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -26308,7 +26310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -26331,7 +26333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -26354,7 +26356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -26377,7 +26379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -26400,7 +26402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -26423,7 +26425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -26446,7 +26448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -26469,7 +26471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -26492,7 +26494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -26515,7 +26517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -26538,7 +26540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -26561,7 +26563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -26584,7 +26586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -26607,7 +26609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -26630,7 +26632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -26653,7 +26655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -26676,7 +26678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -26699,7 +26701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -26722,7 +26724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -26745,7 +26747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -26768,7 +26770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -26791,7 +26793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -26814,7 +26816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -26837,7 +26839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -26860,7 +26862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -26883,7 +26885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -26906,7 +26908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -26929,7 +26931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -26952,7 +26954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -26975,7 +26977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -26998,7 +27000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -27021,7 +27023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -27044,7 +27046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -27067,7 +27069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -27090,7 +27092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -27113,7 +27115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -27136,7 +27138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -27159,7 +27161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -27182,7 +27184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -27205,7 +27207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -27228,7 +27230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -27251,7 +27253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -27274,7 +27276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -27297,7 +27299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -27320,7 +27322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -27343,7 +27345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -27366,7 +27368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -27389,7 +27391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -27412,7 +27414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -27435,7 +27437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -27458,7 +27460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -27481,7 +27483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -27504,7 +27506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -27527,7 +27529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -27550,7 +27552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -27573,7 +27575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -27596,7 +27598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -27619,7 +27621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -27642,7 +27644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -27665,7 +27667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -27688,7 +27690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -27711,7 +27713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -27734,7 +27736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -27757,7 +27759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -27780,7 +27782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -27803,7 +27805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -27826,7 +27828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -27849,7 +27851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -27872,7 +27874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -27895,7 +27897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -27918,7 +27920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -27941,7 +27943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -27964,7 +27966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -27987,7 +27989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -28010,7 +28012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -28033,7 +28035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -28056,7 +28058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -28079,7 +28081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -28102,7 +28104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -28125,7 +28127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -28148,7 +28150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -28171,7 +28173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -28194,7 +28196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -28217,7 +28219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -28240,7 +28242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -28263,7 +28265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -28286,7 +28288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -28309,7 +28311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -28332,7 +28334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -28355,7 +28357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -28378,7 +28380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -28401,7 +28403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -28424,7 +28426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -28447,7 +28449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -28470,7 +28472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -28493,7 +28495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -28516,7 +28518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -28539,7 +28541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -28562,7 +28564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -28585,7 +28587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -28608,7 +28610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -28631,7 +28633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -28654,7 +28656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -28677,7 +28679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -28700,7 +28702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -28723,7 +28725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -28746,7 +28748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -28769,7 +28771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -28792,7 +28794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -28815,7 +28817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -28838,7 +28840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -28861,7 +28863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -28884,7 +28886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -28907,7 +28909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>894</v>
       </c>
